--- a/teaching/traditional_assets/database/data/finland/finland_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_brokerage_investment_banking.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.005555555555555556</v>
+        <v>-0.01476510067114094</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2">
-        <v>0.00208597055560325</v>
+        <v>-0.002042344702481116</v>
       </c>
       <c r="J2">
-        <v>0.00208597055560325</v>
+        <v>-0.002042344702481116</v>
       </c>
       <c r="K2">
-        <v>-3.16</v>
+        <v>-11.4</v>
       </c>
       <c r="L2">
-        <v>-0.4388888888888889</v>
+        <v>3.825503355704698</v>
       </c>
       <c r="M2">
-        <v>0.767</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.09492574257425743</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.2427215189873418</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,10 +627,7 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.767</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -639,49 +636,49 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.2149659863945579</v>
+        <v>-0.6745562130177516</v>
       </c>
       <c r="X2">
-        <v>0.06000382589851502</v>
+        <v>0.03890718064103192</v>
       </c>
       <c r="Y2">
-        <v>-0.2749698122930729</v>
+        <v>-0.7134633936587835</v>
       </c>
       <c r="Z2">
-        <v>0.4130831450438612</v>
+        <v>-0.1405026189366338</v>
       </c>
       <c r="AA2">
-        <v>0.0008616792775774813</v>
+        <v>0.000286954779469957</v>
       </c>
       <c r="AB2">
-        <v>0.04770833099942069</v>
+        <v>0.03383421247535916</v>
       </c>
       <c r="AC2">
-        <v>-0.04684665172184321</v>
+        <v>-0.0335472576958892</v>
       </c>
       <c r="AD2">
-        <v>6.19</v>
+        <v>5.13</v>
       </c>
       <c r="AE2">
-        <v>0.589905059998283</v>
+        <v>0.3395690639330314</v>
       </c>
       <c r="AF2">
-        <v>6.779905059998283</v>
+        <v>5.469569063933031</v>
       </c>
       <c r="AG2">
-        <v>6.779905059998283</v>
+        <v>5.469569063933031</v>
       </c>
       <c r="AH2">
-        <v>0.4562549378763707</v>
+        <v>0.3281170042822052</v>
       </c>
       <c r="AI2">
-        <v>0.2692585632806491</v>
+        <v>0.5116734857336338</v>
       </c>
       <c r="AJ2">
-        <v>0.4562549378763707</v>
+        <v>0.3281170042822052</v>
       </c>
       <c r="AK2">
-        <v>0.2692585632806491</v>
+        <v>0.5116734857336338</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -690,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>46.54135338345865</v>
+        <v>69.32432432432432</v>
       </c>
       <c r="AP2">
-        <v>50.97672977442318</v>
+        <v>73.91309545855448</v>
       </c>
     </row>
     <row r="3">
@@ -713,31 +710,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.005555555555555556</v>
+        <v>-0.01476510067114094</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3">
-        <v>0.00208597055560325</v>
+        <v>-0.002042344702481116</v>
       </c>
       <c r="J3">
-        <v>0.00208597055560325</v>
+        <v>-0.002042344702481116</v>
       </c>
       <c r="K3">
-        <v>-3.16</v>
+        <v>-11.4</v>
       </c>
       <c r="L3">
-        <v>-0.4388888888888889</v>
+        <v>3.825503355704698</v>
       </c>
       <c r="M3">
-        <v>0.767</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.09492574257425743</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.2427215189873418</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,10 +746,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.767</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -761,49 +755,49 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.2149659863945579</v>
+        <v>-0.6745562130177516</v>
       </c>
       <c r="X3">
-        <v>0.06000382589851502</v>
+        <v>0.03890718064103192</v>
       </c>
       <c r="Y3">
-        <v>-0.2749698122930729</v>
+        <v>-0.7134633936587835</v>
       </c>
       <c r="Z3">
-        <v>0.4130831450438612</v>
+        <v>-0.1405026189366338</v>
       </c>
       <c r="AA3">
-        <v>0.0008616792775774813</v>
+        <v>0.000286954779469957</v>
       </c>
       <c r="AB3">
-        <v>0.04770833099942069</v>
+        <v>0.03383421247535916</v>
       </c>
       <c r="AC3">
-        <v>-0.04684665172184321</v>
+        <v>-0.0335472576958892</v>
       </c>
       <c r="AD3">
-        <v>6.19</v>
+        <v>5.13</v>
       </c>
       <c r="AE3">
-        <v>0.589905059998283</v>
+        <v>0.3395690639330314</v>
       </c>
       <c r="AF3">
-        <v>6.779905059998283</v>
+        <v>5.469569063933031</v>
       </c>
       <c r="AG3">
-        <v>6.779905059998283</v>
+        <v>5.469569063933031</v>
       </c>
       <c r="AH3">
-        <v>0.4562549378763707</v>
+        <v>0.3281170042822052</v>
       </c>
       <c r="AI3">
-        <v>0.2692585632806491</v>
+        <v>0.5116734857336338</v>
       </c>
       <c r="AJ3">
-        <v>0.4562549378763707</v>
+        <v>0.3281170042822052</v>
       </c>
       <c r="AK3">
-        <v>0.2692585632806491</v>
+        <v>0.5116734857336338</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -812,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>46.54135338345865</v>
+        <v>69.32432432432432</v>
       </c>
       <c r="AP3">
-        <v>50.97672977442318</v>
+        <v>73.91309545855448</v>
       </c>
     </row>
   </sheetData>
